--- a/data/trans_camb/P15A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 1,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 3,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 1,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 2,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,44; 75,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,73; 97,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,37; 97,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,19; 48,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,46; 90,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 122,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,52; 35,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,92; 67,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 88,05</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; -0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; -0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; -1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 0,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 0,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; -0,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; -0,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,9; -6,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,11; -21,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,4; -25,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,22; 66,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,36; 19,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,21; 42,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,28; 1,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,88; -20,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,98; -14,86</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 0,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; -0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 1,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 0,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 0,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; -0,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,52; 68,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,61; 36,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,04; 3,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,81; 153,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,79; 99,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,95; 44,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,91; 68,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,95; 33,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,95; -5,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 0,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; -0,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; -0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 0,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; -0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; -0,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,78; 2,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,23; -6,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,78; -16,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,6; 35,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,85; 18,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,28; 22,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,26; 7,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,25; -4,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,98; -9,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,58</t>
+          <t>-1,37; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,27</t>
+          <t>0,21; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,21</t>
+          <t>0,01; 2,23</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>35,61%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 97,72</t>
+          <t>-45,34; 99,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 122,13</t>
+          <t>3,67; 124,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 88,05</t>
+          <t>-0,32; 89,16</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-1,49</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -1,04</t>
+          <t>-3,94; -1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,72</t>
+          <t>-1,33; 0,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; -0,47</t>
+          <t>-2,37; -0,67</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,79%</t>
+          <t>-54,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-17,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,95%</t>
+          <t>-43,06%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,4; -25,75</t>
+          <t>-72,82; -33,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 42,55</t>
+          <t>-49,22; 33,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -14,86</t>
+          <t>-59,37; -21,92</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; -0,08</t>
+          <t>-3,96; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,52</t>
+          <t>-3,24; 0,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; -0,28</t>
+          <t>-3,01; -0,2</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-54,59%</t>
+          <t>-53,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-39,37%</t>
+          <t>-40,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,28%</t>
+          <t>-48,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,04; 3,06</t>
+          <t>-82,02; 8,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,95; 44,32</t>
+          <t>-71,99; 38,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -5,19</t>
+          <t>-71,26; -4,29</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; -0,62</t>
+          <t>-2,67; -0,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,55</t>
+          <t>-1,07; 0,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; -0,26</t>
+          <t>-1,61; -0,41</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>-44,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>-29,76%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -16,69</t>
+          <t>-63,28; -22,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 22,46</t>
+          <t>-34,67; 17,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -9,5</t>
+          <t>-45,09; -13,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,37</t>
+          <t>-1,46; 1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,72</t>
+          <t>-1,15; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,61</t>
+          <t>-1,28; 1,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,26</t>
+          <t>-1,65; 1,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,66</t>
+          <t>-1,0; 2,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,36</t>
+          <t>0,09; 3,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,9</t>
+          <t>-1,1; 0,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,77</t>
+          <t>-0,55; 1,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,23</t>
+          <t>0,12; 2,27</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 75,99</t>
+          <t>-48,32; 82,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 97,03</t>
+          <t>-36,77; 102,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 99,65</t>
+          <t>-42,2; 98,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 48,61</t>
+          <t>-38,22; 42,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 90,08</t>
+          <t>-24,39; 94,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 124,29</t>
+          <t>1,3; 118,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 35,25</t>
+          <t>-31,01; 36,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 67,73</t>
+          <t>-16,47; 69,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 89,16</t>
+          <t>2,8; 91,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,3</t>
+          <t>-2,86; -0,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; -0,89</t>
+          <t>-3,35; -0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -1,29</t>
+          <t>-3,89; -1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,12</t>
+          <t>-1,01; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,31</t>
+          <t>-1,59; 0,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,54</t>
+          <t>-1,35; 0,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,06</t>
+          <t>-1,64; 0,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; -0,6</t>
+          <t>-2,31; -0,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,67</t>
+          <t>-2,37; -0,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -6,33</t>
+          <t>-52,68; -2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,11; -21,11</t>
+          <t>-60,75; -14,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,82; -33,86</t>
+          <t>-71,7; -30,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 66,11</t>
+          <t>-36,59; 67,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 19,81</t>
+          <t>-57,29; 25,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 33,78</t>
+          <t>-48,42; 41,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 1,81</t>
+          <t>-41,53; 2,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,88; -20,02</t>
+          <t>-56,5; -19,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,37; -21,92</t>
+          <t>-59,54; -22,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,5</t>
+          <t>-3,11; 1,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,7</t>
+          <t>-3,37; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,04</t>
+          <t>-4,24; 0,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,9</t>
+          <t>-2,05; 2,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,67</t>
+          <t>-2,44; 1,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,44</t>
+          <t>-3,22; 0,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,53</t>
+          <t>-1,6; 1,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,73</t>
+          <t>-2,21; 0,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,2</t>
+          <t>-2,88; -0,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 68,24</t>
+          <t>-65,79; 69,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 36,89</t>
+          <t>-73,66; 48,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,02; 8,98</t>
+          <t>-83,6; 15,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 153,69</t>
+          <t>-55,18; 159,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 99,89</t>
+          <t>-61,48; 103,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,99; 38,98</t>
+          <t>-74,0; 26,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 68,38</t>
+          <t>-42,89; 77,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,95; 33,58</t>
+          <t>-54,74; 34,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,26; -4,29</t>
+          <t>-69,26; 2,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,07</t>
+          <t>-1,82; 0,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; -0,23</t>
+          <t>-2,06; -0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,78</t>
+          <t>-2,61; -0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,82</t>
+          <t>-0,88; 0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,46</t>
+          <t>-1,11; 0,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,44</t>
+          <t>-1,12; 0,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,22</t>
+          <t>-1,05; 0,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; -0,11</t>
+          <t>-1,37; -0,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; -0,41</t>
+          <t>-1,54; -0,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 2,36</t>
+          <t>-42,94; 1,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,23; -6,89</t>
+          <t>-47,57; -7,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,28; -22,64</t>
+          <t>-60,97; -24,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 35,14</t>
+          <t>-27,76; 36,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 18,49</t>
+          <t>-34,27; 22,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 17,87</t>
+          <t>-34,01; 19,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 7,92</t>
+          <t>-29,68; 4,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,25; -4,14</t>
+          <t>-37,95; -4,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,09; -13,99</t>
+          <t>-43,17; -10,91</t>
         </is>
       </c>
     </row>
